--- a/resources/template/_invoice_nordihome.xlsx
+++ b/resources/template/_invoice_nordihome.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Server\localhost\nordihome\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\localhost\nordihome\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,12 +66,6 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Без налога (НДС)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Всего к оплате:</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>{chief}</t>
+  </si>
+  <si>
+    <t>{vat_caption}</t>
+  </si>
+  <si>
+    <t>{vat_value}</t>
   </si>
 </sst>
 </file>
@@ -486,9 +486,111 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -497,108 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:J41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="BH20" sqref="BH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1010,152 +1010,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="C1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="28"/>
+      <c r="H1" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="30"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="A7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="A9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="A10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1176,12 +1176,12 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="20">
         <v>2</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="7">
         <v>3</v>
       </c>
@@ -1200,358 +1200,353 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="G15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="25" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="50"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="H40" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="H40" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="D41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="H41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
+      <c r="D41" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="H41" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="17"/>
+      <c r="A43" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="50"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="D44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="H44" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="D44" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="H44" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="A16:F16"/>
@@ -1565,21 +1560,26 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
